--- a/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
@@ -620,8 +620,14 @@
       <c r="A15" s="1">
         <v>2020</v>
       </c>
+      <c r="B15">
+        <v>1459.878</v>
+      </c>
       <c r="C15">
         <v>660.424</v>
+      </c>
+      <c r="D15">
+        <v>1451.386</v>
       </c>
       <c r="E15">
         <v>653.063</v>
@@ -756,6 +762,9 @@
       <c r="A12" s="1">
         <v>2020</v>
       </c>
+      <c r="B12">
+        <v>-8.491999999999962</v>
+      </c>
       <c r="C12">
         <v>-7.36099999999999</v>
       </c>
@@ -786,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -797,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>19.97250000000001</v>
+        <v>17.3848181818182</v>
       </c>
       <c r="C3">
         <v>3.698666666666643</v>
@@ -808,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>45.02984259910316</v>
+        <v>43.57264188873152</v>
       </c>
       <c r="C4">
         <v>23.13856813849982</v>
@@ -830,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-18.47975000000008</v>
+        <v>-15.71950000000004</v>
       </c>
       <c r="C6">
         <v>-6.812000000000012</v>
@@ -841,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>31.17250000000013</v>
+        <v>20.99299999999994</v>
       </c>
       <c r="C7">
         <v>0.2970000000000255</v>
@@ -852,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>47.57349999999991</v>
+        <v>46.28699999999992</v>
       </c>
       <c r="C8">
         <v>20.67399999999986</v>
@@ -901,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -918,13 +927,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1665.93</v>
+        <v>1647.198</v>
       </c>
       <c r="C3">
         <v>776.0413333333333</v>
       </c>
       <c r="D3">
-        <v>1584.521153846154</v>
+        <v>1575.0115</v>
       </c>
       <c r="E3">
         <v>779.74</v>
@@ -935,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>360.1910637052384</v>
+        <v>347.3090960510537</v>
       </c>
       <c r="C4">
         <v>108.7028747549944</v>
       </c>
       <c r="D4">
-        <v>350.7157996759024</v>
+        <v>338.8303144268189</v>
       </c>
       <c r="E4">
         <v>110.2965204584895</v>
@@ -969,13 +978,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1327.1965</v>
+        <v>1367.917</v>
       </c>
       <c r="C6">
         <v>706.3810000000001</v>
       </c>
       <c r="D6">
-        <v>1330.19</v>
+        <v>1335.58375</v>
       </c>
       <c r="E6">
         <v>723.867</v>
@@ -986,13 +995,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1692.3325</v>
+        <v>1590.887</v>
       </c>
       <c r="C7">
         <v>753.518</v>
       </c>
       <c r="D7">
-        <v>1444.28</v>
+        <v>1447.833</v>
       </c>
       <c r="E7">
         <v>753.8150000000001</v>
@@ -1003,13 +1012,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1911.16125</v>
+        <v>1879.7765</v>
       </c>
       <c r="C8">
         <v>837.1180000000001</v>
       </c>
       <c r="D8">
-        <v>1838</v>
+        <v>1837.2825</v>
       </c>
       <c r="E8">
         <v>793.187</v>
@@ -1067,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9942836953337256</v>
+        <v>0.9937397757167766</v>
       </c>
       <c r="D2">
-        <v>0.9245388939442507</v>
+        <v>0.8906311083950605</v>
       </c>
       <c r="E2">
-        <v>0.8403408494159765</v>
+        <v>0.8058454272028913</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1081,16 +1090,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9942836953337256</v>
+        <v>0.9937397757167766</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9443573634567499</v>
+        <v>0.9223018021626466</v>
       </c>
       <c r="E3">
-        <v>0.8708666603168016</v>
+        <v>0.849051948013255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1098,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.9245388939442507</v>
+        <v>0.8906311083950605</v>
       </c>
       <c r="C4">
-        <v>0.9443573634567499</v>
+        <v>0.9223018021626466</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1115,10 +1124,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8403408494159765</v>
+        <v>0.8058454272028913</v>
       </c>
       <c r="C5">
-        <v>0.8708666603168016</v>
+        <v>0.849051948013255</v>
       </c>
       <c r="D5">
         <v>0.9777784120333121</v>

--- a/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.bezzubov\Desktop\tendency\Indicators\Indicators_Process_B_7_7_and_B_7_5\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFECAF1-0C3C-4E05-ACE4-6A9B2DAB0ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Статистика по исходным данным" sheetId="4" r:id="rId4"/>
     <sheet name="Результаты корреляции" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -62,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,24 +121,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,9 +190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +224,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +276,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,240 +469,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2007</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>1229.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2008</v>
       </c>
-      <c r="D3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>1150.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2009</v>
       </c>
-      <c r="D4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>1360</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2010</v>
       </c>
-      <c r="B5">
-        <v>1817.007</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>1817.0070000000001</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>1838</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>2011</v>
       </c>
-      <c r="B6">
-        <v>2319.412</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>2319.4119999999998</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2274.36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2012</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1793.778</v>
       </c>
-      <c r="C7">
-        <v>837.1180000000001</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>837.11800000000005</v>
+      </c>
+      <c r="D7" s="2">
         <v>1835.13</v>
       </c>
-      <c r="E7">
-        <v>793.187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="E7" s="2">
+        <v>793.18700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2013</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1942.546</v>
       </c>
-      <c r="C8">
-        <v>866.8810000000001</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>866.88100000000009</v>
+      </c>
+      <c r="D8" s="2">
         <v>1910.89</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>865.1110000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2014</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1957.01</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1000.937</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>2009.15</v>
       </c>
-      <c r="E9">
-        <v>1029.388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="E9" s="2">
+        <v>1029.3879999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2015</v>
       </c>
-      <c r="B10">
-        <v>1590.887</v>
-      </c>
-      <c r="C10">
-        <v>766.3680000000001</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="2">
+        <v>1590.8869999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>766.36800000000005</v>
+      </c>
+      <c r="D10" s="2">
         <v>1567.94</v>
       </c>
-      <c r="E10">
-        <v>759.556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="E10" s="2">
+        <v>759.55600000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11">
-        <v>1286.476</v>
-      </c>
-      <c r="C11">
-        <v>706.3810000000001</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="2">
+        <v>1286.4760000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>706.38100000000009</v>
+      </c>
+      <c r="D11" s="2">
         <v>1330.19</v>
       </c>
-      <c r="E11">
-        <v>727.0549999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="E11" s="2">
+        <v>727.05499999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2017</v>
       </c>
-      <c r="B12">
-        <v>1449.358</v>
-      </c>
-      <c r="C12">
-        <v>753.518</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="2">
+        <v>1449.3579999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>753.51800000000003</v>
+      </c>
+      <c r="D12" s="2">
         <v>1444.28</v>
       </c>
-      <c r="E12">
-        <v>753.8150000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="E12" s="2">
+        <v>753.81500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2018</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1248.46</v>
       </c>
-      <c r="C13">
-        <v>711.4589999999999</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>711.45899999999995</v>
+      </c>
+      <c r="D13" s="2">
         <v>1297.32</v>
       </c>
-      <c r="E13">
-        <v>723.867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="E13" s="2">
+        <v>723.86699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2019</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1254.366</v>
       </c>
-      <c r="C14">
-        <v>681.2860000000001</v>
-      </c>
-      <c r="D14">
-        <v>1351.765</v>
-      </c>
-      <c r="E14">
-        <v>712.6180000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="C14" s="2">
+        <v>681.28600000000006</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1351.7650000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>712.61800000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2020</v>
       </c>
-      <c r="B15">
-        <v>1459.878</v>
-      </c>
-      <c r="C15">
-        <v>660.424</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="2">
+        <v>1459.8779999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>660.42399999999998</v>
+      </c>
+      <c r="D15" s="2">
         <v>1451.386</v>
       </c>
-      <c r="E15">
-        <v>653.063</v>
+      <c r="E15" s="2">
+        <v>653.06299999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,45 +727,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>20.99299999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20.992999999999942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>-45.05200000000013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-45.052000000000127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>41.35200000000032</v>
+        <v>41.352000000000317</v>
       </c>
       <c r="C4">
         <v>-43.93100000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-31.65599999999995</v>
+        <v>-31.655999999999949</v>
       </c>
       <c r="C5">
         <v>-1.769999999999982</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -700,10 +773,10 @@
         <v>52.1400000000001</v>
       </c>
       <c r="C6">
-        <v>28.45099999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>28.450999999999912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -711,32 +784,32 @@
         <v>-22.94700000000012</v>
       </c>
       <c r="C7">
-        <v>-6.812000000000012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-6.8120000000000118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>43.71399999999994</v>
+        <v>43.713999999999942</v>
       </c>
       <c r="C8">
-        <v>20.67399999999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>20.673999999999861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>-5.077999999999975</v>
+        <v>-5.0779999999999754</v>
       </c>
       <c r="C9">
-        <v>0.2970000000000255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.29700000000002552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -744,26 +817,26 @@
         <v>48.8599999999999</v>
       </c>
       <c r="C10">
-        <v>12.40800000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12.408000000000021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>97.39900000000011</v>
+        <v>97.399000000000115</v>
       </c>
       <c r="C11">
         <v>31.33199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>-8.491999999999962</v>
+        <v>-8.4919999999999618</v>
       </c>
       <c r="C12">
         <v>-7.36099999999999</v>
@@ -775,14 +848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,78 +874,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>17.3848181818182</v>
+        <v>17.384818181818201</v>
       </c>
       <c r="C3">
         <v>3.698666666666643</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>43.57264188873152</v>
+        <v>43.572641888731518</v>
       </c>
       <c r="C4">
-        <v>23.13856813849982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>23.138568138499821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-45.05200000000013</v>
+        <v>-45.052000000000127</v>
       </c>
       <c r="C5">
         <v>-43.93100000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-15.71950000000004</v>
+        <v>-15.719500000000041</v>
       </c>
       <c r="C6">
-        <v>-6.812000000000012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-6.8120000000000118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20.99299999999994</v>
+        <v>20.992999999999942</v>
       </c>
       <c r="C7">
-        <v>0.2970000000000255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.29700000000002552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>46.28699999999992</v>
+        <v>46.286999999999921</v>
       </c>
       <c r="C8">
-        <v>20.67399999999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>20.673999999999861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>97.39900000000011</v>
+        <v>97.399000000000115</v>
       </c>
       <c r="C9">
         <v>31.33199999999999</v>
@@ -884,14 +957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,24 +995,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1647.198</v>
+        <v>1647.1980000000001</v>
       </c>
       <c r="C3">
-        <v>776.0413333333333</v>
+        <v>776.04133333333334</v>
       </c>
       <c r="D3">
-        <v>1575.0115</v>
+        <v>1575.0115000000001</v>
       </c>
       <c r="E3">
         <v>779.74</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,13 +1023,13 @@
         <v>108.7028747549944</v>
       </c>
       <c r="D4">
-        <v>338.8303144268189</v>
+        <v>338.83031442681892</v>
       </c>
       <c r="E4">
         <v>110.2965204584895</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,72 +1037,72 @@
         <v>1248.46</v>
       </c>
       <c r="C5">
-        <v>660.424</v>
+        <v>660.42399999999998</v>
       </c>
       <c r="D5">
         <v>1150.69</v>
       </c>
       <c r="E5">
-        <v>653.063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>653.06299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1367.917</v>
+        <v>1367.9169999999999</v>
       </c>
       <c r="C6">
-        <v>706.3810000000001</v>
+        <v>706.38100000000009</v>
       </c>
       <c r="D6">
         <v>1335.58375</v>
       </c>
       <c r="E6">
-        <v>723.867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>723.86699999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1590.887</v>
+        <v>1590.8869999999999</v>
       </c>
       <c r="C7">
-        <v>753.518</v>
+        <v>753.51800000000003</v>
       </c>
       <c r="D7">
-        <v>1447.833</v>
+        <v>1447.8330000000001</v>
       </c>
       <c r="E7">
-        <v>753.8150000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>753.81500000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1879.7765</v>
+        <v>1879.7764999999999</v>
       </c>
       <c r="C8">
-        <v>837.1180000000001</v>
+        <v>837.11800000000005</v>
       </c>
       <c r="D8">
         <v>1837.2825</v>
       </c>
       <c r="E8">
-        <v>793.187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>793.18700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2319.412</v>
+        <v>2319.4119999999998</v>
       </c>
       <c r="C9">
         <v>1000.937</v>
@@ -1038,7 +1111,7 @@
         <v>2274.36</v>
       </c>
       <c r="E9">
-        <v>1029.388</v>
+        <v>1029.3879999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,61 +1149,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9937397757167766</v>
+        <v>0.99373977571677663</v>
       </c>
       <c r="D2">
-        <v>0.8906311083950605</v>
+        <v>0.89063110839506054</v>
       </c>
       <c r="E2">
-        <v>0.8058454272028913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.80584542720289132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9937397757167766</v>
+        <v>0.99373977571677663</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9223018021626466</v>
+        <v>0.92230180216264657</v>
       </c>
       <c r="E3">
-        <v>0.849051948013255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.84905194801325501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.8906311083950605</v>
+        <v>0.89063110839506054</v>
       </c>
       <c r="C4">
-        <v>0.9223018021626466</v>
+        <v>0.92230180216264657</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9777784120333121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.97777841203331206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8058454272028913</v>
+        <v>0.80584542720289132</v>
       </c>
       <c r="C5">
-        <v>0.849051948013255</v>
+        <v>0.84905194801325501</v>
       </c>
       <c r="D5">
-        <v>0.9777784120333121</v>
+        <v>0.97777841203331206</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
-    <sheet name="Откл от вып ленты год_полугодие" sheetId="2" r:id="rId2"/>
-    <sheet name="Откл от вып компл год_полугодие" sheetId="3" r:id="rId3"/>
+    <sheet name="Реализация-выпуск лента" sheetId="2" r:id="rId2"/>
+    <sheet name="Реализация-выпуск комплекты" sheetId="3" r:id="rId3"/>
     <sheet name="Результаты корреляции" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Количество выпущенной п/б ленты по годам в тоннах</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уровень поставок по полугодиям </t>
+  </si>
+  <si>
+    <t>Разница в тоннах</t>
   </si>
   <si>
     <t>Год</t>
@@ -961,133 +964,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
+        <v>1838</v>
+      </c>
+      <c r="C2">
+        <v>1817.007</v>
+      </c>
+      <c r="D2">
         <v>20.99299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
+        <v>2274.36</v>
+      </c>
+      <c r="C3">
+        <v>2319.412</v>
+      </c>
+      <c r="D3">
         <v>-45.05199999999968</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
+        <v>1835.13</v>
+      </c>
+      <c r="C4">
+        <v>1793.778</v>
+      </c>
+      <c r="D4">
         <v>41.35200000000009</v>
       </c>
-      <c r="C4">
-        <v>-43.93100000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
+        <v>1910.89</v>
+      </c>
+      <c r="C5">
+        <v>1942.546</v>
+      </c>
+      <c r="D5">
         <v>-31.65599999999995</v>
       </c>
-      <c r="C5">
-        <v>-1.769999999999982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
       <c r="B6">
+        <v>2009.15</v>
+      </c>
+      <c r="C6">
+        <v>1957.01</v>
+      </c>
+      <c r="D6">
         <v>52.1400000000001</v>
       </c>
-      <c r="C6">
-        <v>28.45099999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
       <c r="B7">
+        <v>1567.94</v>
+      </c>
+      <c r="C7">
+        <v>1590.887</v>
+      </c>
+      <c r="D7">
         <v>-22.94699999999989</v>
       </c>
-      <c r="C7">
-        <v>-6.812000000000012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
+        <v>1330.19</v>
+      </c>
+      <c r="C8">
+        <v>1286.476</v>
+      </c>
+      <c r="D8">
         <v>43.71399999999994</v>
       </c>
-      <c r="C8">
-        <v>20.67399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
+        <v>1444.28</v>
+      </c>
+      <c r="C9">
+        <v>1449.358</v>
+      </c>
+      <c r="D9">
         <v>-5.077999999999975</v>
       </c>
-      <c r="C9">
-        <v>0.2970000000000255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10">
+        <v>1297.32</v>
+      </c>
+      <c r="C10">
+        <v>1248.46</v>
+      </c>
+      <c r="D10">
         <v>48.8599999999999</v>
       </c>
-      <c r="C10">
-        <v>12.40800000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
       <c r="B11">
+        <v>1351.765</v>
+      </c>
+      <c r="C11">
+        <v>1254.366</v>
+      </c>
+      <c r="D11">
         <v>97.39900000000011</v>
       </c>
-      <c r="C11">
-        <v>31.33200000000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
       <c r="B12">
+        <v>1451.386</v>
+      </c>
+      <c r="C12">
+        <v>1459.878</v>
+      </c>
+      <c r="D12">
         <v>-8.491999999999962</v>
-      </c>
-      <c r="C12">
-        <v>-7.36099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1097,59 +1145,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2532</v>
+      </c>
+      <c r="C2">
+        <v>2532</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6502</v>
+      </c>
+      <c r="C3">
+        <v>6502</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
       <c r="B4">
+        <v>10984</v>
+      </c>
+      <c r="C4">
+        <v>11279</v>
+      </c>
+      <c r="D4">
         <v>-295</v>
       </c>
-      <c r="C4">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
       <c r="B5">
+        <v>3079</v>
+      </c>
+      <c r="C5">
+        <v>2839</v>
+      </c>
+      <c r="D5">
         <v>240</v>
-      </c>
-      <c r="C5">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Уровень поставок по полугодиям </t>
   </si>
   <si>
-    <t>Разница в тоннах</t>
+    <t>Отклонение от выпуска</t>
   </si>
   <si>
     <t>Год</t>

--- a/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_7_and_B_7_5/files/record.xlsx
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,6 +955,17 @@
       </c>
       <c r="P17">
         <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C18">
+        <v>762.942</v>
+      </c>
+      <c r="L18">
+        <v>3846</v>
       </c>
     </row>
   </sheetData>
